--- a/biology/Mycologie/Tricholomataceae/Tricholomataceae.xlsx
+++ b/biology/Mycologie/Tricholomataceae/Tricholomataceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Tricholomataceae sont une vaste famille, très hétérogène, de champignons basidiomycètes de l'ordre des Agaricales.
 </t>
@@ -511,13 +523,15 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille exclut les espèces à revêtement piléique très différencié (hyménoderme en particulier) et les silhouettes marasmioïdes ou mycénoïdes. Dans la systématique classique, elle réunissait des espèces :  
 Tricholomoïdes + - charnues. Lames d’épaisseur normales, décurrentes, adnées ou échancrées. Revêtement non hyménodermique.
 Silhouette omphaloïde, clitocyboïde à tricholomoïde. Quelques collybioïdes à spores amyloïdes, basides sidérophiles.
-Sporée blanche ou crème à ocracé ou rosâtre terne[2].
-La sous-famille des Tricholomatoideae : Spores non amyloïdes et basides non carminophiles[3]. Espèces tricholomoïdes sans particularités de chimisme des spores et basides :  Tricholoma, Tricholomopsis, Callistoporium
+Sporée blanche ou crème à ocracé ou rosâtre terne.
+La sous-famille des Tricholomatoideae : Spores non amyloïdes et basides non carminophiles. Espèces tricholomoïdes sans particularités de chimisme des spores et basides :  Tricholoma, Tricholomopsis, Callistoporium
 La sous-famille des Clitocyboideae groupait :
 Clitocyboïde ou Omphaloïde à lames pentues-décurrentes,
 rarement horizontales (tricholomo-collybioïdes) dans le cas de spores rosées et ornées ;
@@ -563,9 +577,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (4 novembre 2020)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (4 novembre 2020) :
 genre Aeruginospora Höhn.
 genre Amparoina Singer
 genre Arrhenia Fr.
@@ -647,7 +663,7 @@
 genre Tricholomopsis Singer
 genre Tricholosporum Guzmán
 genre Ugola Adans.
-Selon Catalogue of Life                                   (4 novembre 2020)[5] :
+Selon Catalogue of Life                                   (4 novembre 2020) :
 genre Aeruginospora
 genre Albomagister
 genre Amparoina
@@ -747,7 +763,7 @@
 genre Tricholomopsis
 genre Tricholosporum
 genre Ugola
-Selon NCBI  (18 février 2018)[6] :
+Selon NCBI  (18 février 2018) :
 genre Albomagister
 genre Alloclavaria
 genre Ampulloclitocybe
